--- a/src/output/teacher_timetables.xlsx
+++ b/src/output/teacher_timetables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>mon</t>
   </si>
@@ -53,12 +53,37 @@
   <si>
     <t>maths
 Ma1
+10N1</t>
+  </si>
+  <si>
+    <t>maths
+Ma1
+8S1</t>
+  </si>
+  <si>
+    <t>maths
+Ma1
+10S1</t>
+  </si>
+  <si>
+    <t>maths
+Ma1
+7N1</t>
+  </si>
+  <si>
+    <t>maths
+Ma1
+7S1</t>
+  </si>
+  <si>
+    <t>maths
+Ma1
 9S1</t>
   </si>
   <si>
     <t>maths
 Ma1
-7S1</t>
+8N1</t>
   </si>
   <si>
     <t>maths
@@ -68,27 +93,7 @@
   <si>
     <t>maths
 Ma1
-8N1</t>
-  </si>
-  <si>
-    <t>maths
-Ma1
 11N1</t>
-  </si>
-  <si>
-    <t>maths
-Ma1
-10N1</t>
-  </si>
-  <si>
-    <t>maths
-Ma1
-7N1</t>
-  </si>
-  <si>
-    <t>maths
-Ma1
-10S1</t>
   </si>
   <si>
     <t>maths
@@ -455,9 +460,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="70" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" customHeight="1">
+    <row r="1" spans="1:6" ht="70" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1">
+    <row r="2" spans="1:6" ht="70" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -482,96 +487,96 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" customHeight="1">
+    <row r="3" spans="1:6" ht="70" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" customHeight="1">
+    <row r="4" spans="1:6" ht="70" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60" customHeight="1">
+    <row r="5" spans="1:6" ht="70" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:6" ht="60" customHeight="1">
+    <row r="6" spans="1:6" ht="70" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
